--- a/gaman_garuda_mandiri_umkm.xlsx
+++ b/gaman_garuda_mandiri_umkm.xlsx
@@ -8,116 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ficky alkarim\Documents\Data Bank Indonesia Hackathon 2024\github dan streamlit utk BI\GAMAN-Project-for-TruEra-Challenge-Build-LLM-Applications-with-Google-Cloud-Vertex-AI-2023-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0846376-AE6C-416C-A6B4-7BD523D087DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00975353-15D4-43E2-9B7C-6B925E676DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Federal Crowdsourcing and Citiz" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
-  <si>
-    <t>project_url_on_catalog</t>
-  </si>
-  <si>
-    <t>project_url_external</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="296">
   <si>
     <t>keywords</t>
   </si>
   <si>
-    <t>scistarter</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>NOAA NWS SKYWARNÂ® Weather Spotter Program</t>
-  </si>
-  <si>
-    <t>https://www.citizenscience.gov/catalog/3/</t>
-  </si>
-  <si>
-    <t>http://www.nws.noaa.gov/skywarn/</t>
-  </si>
-  <si>
-    <t>SKYWARNÂ® is a National Weather Service (NWS) program developed in the 1960s that consists of trained weather spotters who provide reports of severe and hazardous weather to help meteorologists and emergency managers make life-saving warning decisions. There are well over 300,000 active SKYWARN Weather Spotters in the U.S. Spotters are concerned citizens, amateur radio operators, truck drivers, mariners, airplane pilots, emergency management personnel, and public safety officials who volunteer their time and energy to report on hazardous weather impacting their community. The first steps in becoming an official NWS SKYWARN Weather Spotter is to complete training on weather hazards and their reporting in your area. Classroom type training is typically offered each Spring and Fall. To find the next available training provided by your local NWS forecast office please visit this interactive map: http://www.nws.noaa.gov/skywarn/skywarn.htm In partnership with the COMETÂ® Program, which is part of the University Corporation for Atmospheric Research&amp;#39;s Community Programs supplemental national web-based training was also created. For more information please visit: https://www.meted.ucar.edu/training_course.php?id=23</t>
-  </si>
-  <si>
-    <t>Skywarn, weather, spotter, flood, tornado, thunderstorm. hurricane, typhoon, snow, ice, wind, damage, storm, NOAA, NWS, training, meteorology</t>
-  </si>
-  <si>
-    <t>Climate and weather</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>National Oceanic and Atmospheric Administration (NOAA)</t>
-  </si>
-  <si>
-    <t>John McLaughlin</t>
-  </si>
-  <si>
-    <t>john.mclaughlin@noaa.gov</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>families, general_public, seniors, teens</t>
-  </si>
-  <si>
-    <t>audio_video_recording, identification, learning, measurement, observation, photography</t>
-  </si>
-  <si>
-    <t>ron.gird@noaa.gov</t>
-  </si>
-  <si>
-    <t>Florida Keys Water Watch</t>
-  </si>
-  <si>
-    <t>https://www.citizenscience.gov/catalog/4/</t>
-  </si>
-  <si>
-    <t>http://monroe.ifas.ufl.edu/pdf/environment/fkww.pdf</t>
-  </si>
-  <si>
-    <t>The University of Florida IFAS Monroe County Extension developed Florida Keys Water Watch, a community-based volunteer water quality monitoring program to promote awareness of the importance of water quality, reduce nonpoint source pollution, and involve students and citizens to monitor coastal habitats from man-made canals to bays to  beaches.  Florida Keys Water Watch teaches volunteers to test a site of their choice for dissolved oxygen, pH, salinity and temperature after attending a 4-hour workshop.</t>
-  </si>
-  <si>
-    <t>water quality, dissolved oxygen, pH, salinity, Florida Keys, South Florida, coastal</t>
-  </si>
-  <si>
-    <t>Chemistry,  Ecology and environment,  Nature and outdoors, Ocean/water and marine</t>
-  </si>
-  <si>
-    <t>U.S. Environmental Protection Agency (EPA)</t>
-  </si>
-  <si>
-    <t>Jay Benforado</t>
-  </si>
-  <si>
-    <t>benforado.jay@epa.gov</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>elementary_school_children, families, general_public, seniors</t>
-  </si>
-  <si>
-    <t>data_entry, identification, learning, measurement, observation, sample_analysis, site_selection_description, specimen_sample_collection</t>
-  </si>
-  <si>
-    <t>shellykrueger@ufl.edu</t>
-  </si>
-  <si>
     <t>Project ID</t>
   </si>
   <si>
@@ -130,15 +50,9 @@
     <t>fields of science</t>
   </si>
   <si>
-    <t>project status</t>
-  </si>
-  <si>
     <t>agency sponsor</t>
   </si>
   <si>
-    <t>agency sponsor other</t>
-  </si>
-  <si>
     <t xml:space="preserve"> government name of contact</t>
   </si>
   <si>
@@ -148,23 +62,877 @@
     <t>geographic scope</t>
   </si>
   <si>
-    <t>participant age</t>
-  </si>
-  <si>
-    <t>participation tasks</t>
-  </si>
-  <si>
-    <t>start date</t>
-  </si>
-  <si>
-    <t>project goals</t>
+    <t>Nanggroe Aceh Darussalam</t>
+  </si>
+  <si>
+    <t>Sumatera Utara</t>
+  </si>
+  <si>
+    <t>Sumatera Selatan</t>
+  </si>
+  <si>
+    <t>Sumatera Barat</t>
+  </si>
+  <si>
+    <t>Bengkulu</t>
+  </si>
+  <si>
+    <t>Riau</t>
+  </si>
+  <si>
+    <t>Kepulauan Riau</t>
+  </si>
+  <si>
+    <t>Jambi</t>
+  </si>
+  <si>
+    <t>Lampung</t>
+  </si>
+  <si>
+    <t>Bangka Belitung</t>
+  </si>
+  <si>
+    <t>Kalimantan Barat</t>
+  </si>
+  <si>
+    <t>Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>Kalimantan Selatan</t>
+  </si>
+  <si>
+    <t>Kalimantan Tengah</t>
+  </si>
+  <si>
+    <t>Kalimantan Utara</t>
+  </si>
+  <si>
+    <t>Banten</t>
+  </si>
+  <si>
+    <t>DKI Jakarta</t>
+  </si>
+  <si>
+    <t>Jawa Barat</t>
+  </si>
+  <si>
+    <t>Jawa Tengah</t>
+  </si>
+  <si>
+    <t>DIY Yogyakarta</t>
+  </si>
+  <si>
+    <t>Jawa Timur</t>
+  </si>
+  <si>
+    <t>Bali</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Timur</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Barat</t>
+  </si>
+  <si>
+    <t>Gorontalo</t>
+  </si>
+  <si>
+    <t>Sulawesi Barat</t>
+  </si>
+  <si>
+    <t>Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t>Sulawesi Utara</t>
+  </si>
+  <si>
+    <t>Sulawesi Tenggara</t>
+  </si>
+  <si>
+    <t>Sulawesi Selatan</t>
+  </si>
+  <si>
+    <t>Maluku Utara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maluku </t>
+  </si>
+  <si>
+    <t>Papua Barat</t>
+  </si>
+  <si>
+    <t>Papua</t>
+  </si>
+  <si>
+    <t>Papua Tengah</t>
+  </si>
+  <si>
+    <t>Papua Pegunungan</t>
+  </si>
+  <si>
+    <t>Papua Selatan</t>
+  </si>
+  <si>
+    <t>Papua Barat Daya</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>Penjual</t>
+  </si>
+  <si>
+    <t>Pembeli</t>
+  </si>
+  <si>
+    <t>Makanan dan Minuman</t>
+  </si>
+  <si>
+    <t>pertanian</t>
+  </si>
+  <si>
+    <t>perkebunan</t>
+  </si>
+  <si>
+    <t>perikanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elektronik </t>
+  </si>
+  <si>
+    <t>ekspor/impor</t>
+  </si>
+  <si>
+    <t>Handicraft</t>
+  </si>
+  <si>
+    <t>startup digital</t>
+  </si>
+  <si>
+    <t>Kontraktor</t>
+  </si>
+  <si>
+    <t>Infrastruktur dan Material Bangunan</t>
+  </si>
+  <si>
+    <t>Elektronik,Stationary &amp; Percetakan</t>
+  </si>
+  <si>
+    <t>Agro F&amp;B</t>
+  </si>
+  <si>
+    <t>Produk Kreatif</t>
+  </si>
+  <si>
+    <t>Pengadaan, Sewa &amp; Peralatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikan lele jumbo </t>
+  </si>
+  <si>
+    <t>Jasa rias dan salon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasa Catering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pengadaan Kosmetik salon/Catering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasa Bengkel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keripik Dan Kue Basah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerajinan  Bambu </t>
+  </si>
+  <si>
+    <t>Teknologi</t>
+  </si>
+  <si>
+    <t>BERKEBUN/PETANI</t>
+  </si>
+  <si>
+    <t>JUAL PAKAIAN</t>
+  </si>
+  <si>
+    <t>DAGANG PAKAIAN JADI</t>
+  </si>
+  <si>
+    <t>PENGGILINGAN TEPUNG DAN BUMBU</t>
+  </si>
+  <si>
+    <t>JUAL SPERPART MOBIL</t>
+  </si>
+  <si>
+    <t>JUAL SEMBAKO</t>
+  </si>
+  <si>
+    <t>USAHA PRODUKSI MADU</t>
+  </si>
+  <si>
+    <t>OUTLET 123 PENTOL PEDAS</t>
+  </si>
+  <si>
+    <t>JUAL ISI ULANG PARFUM</t>
+  </si>
+  <si>
+    <t>JUAL BELI EMAS</t>
+  </si>
+  <si>
+    <t>TOKO SEMBAKO</t>
+  </si>
+  <si>
+    <t>JUAL PULSA/KONTER HANDPHONE</t>
+  </si>
+  <si>
+    <t>JUALAN ELEKTRONIK</t>
+  </si>
+  <si>
+    <t>RIZKY LAUNDRY</t>
+  </si>
+  <si>
+    <t>JUAL MAKANAN DAN MINUMAN</t>
+  </si>
+  <si>
+    <t>LAUNDRY "MAMA"</t>
+  </si>
+  <si>
+    <t>USAHA MAKANAN NASI KUNING</t>
+  </si>
+  <si>
+    <t>DAGANG KRIPCO</t>
+  </si>
+  <si>
+    <t>PRODUK MAKANAN RINGAN</t>
+  </si>
+  <si>
+    <t>USAHA KUE</t>
+  </si>
+  <si>
+    <t>USAHA MAKANAN RINGAN</t>
+  </si>
+  <si>
+    <t>WARUNG MAKAN</t>
+  </si>
+  <si>
+    <t>CAFÉ INTAN</t>
+  </si>
+  <si>
+    <t>RUMAH MAKAN</t>
+  </si>
+  <si>
+    <t>TAMBAK IKAN</t>
+  </si>
+  <si>
+    <t>JUALAN SEMBAKO</t>
+  </si>
+  <si>
+    <t>DAGANG SEMBAKO</t>
+  </si>
+  <si>
+    <t>MENJAHIT DAN BUDIDAYA JAMUR TIRAM</t>
+  </si>
+  <si>
+    <t>KEDAI LUP-LUP</t>
+  </si>
+  <si>
+    <t>USAHA SABLON DAN REKLAME</t>
+  </si>
+  <si>
+    <t>PENJAHIT PAKAIAN</t>
+  </si>
+  <si>
+    <t>PRINCES SALON</t>
+  </si>
+  <si>
+    <t>INDUSTRI TAHU DAN TEMPE</t>
+  </si>
+  <si>
+    <t>USAHA KOLAM IKAN</t>
+  </si>
+  <si>
+    <t>JASA ANGKUT TRUK</t>
+  </si>
+  <si>
+    <t>PEMBIBITAN IKAN</t>
+  </si>
+  <si>
+    <t>SUPLAYER SEMBAKO DAN KOSMETIK</t>
+  </si>
+  <si>
+    <t>USAHA JASA ANGKUTAN PENYUPLAI BBM</t>
+  </si>
+  <si>
+    <t>CATERING IBU RIZKY</t>
+  </si>
+  <si>
+    <t>BUDIDAYA IKAN</t>
+  </si>
+  <si>
+    <t>JUAL SEMBAKO "TOKO PELITA"</t>
+  </si>
+  <si>
+    <t>JUAL BELI ROTAN</t>
+  </si>
+  <si>
+    <t>USAHA LAUNDRY IRMA</t>
+  </si>
+  <si>
+    <t>SALON</t>
+  </si>
+  <si>
+    <t>JUAL ANEKA MAKANAN</t>
+  </si>
+  <si>
+    <t>USAHA MENJAHIT</t>
+  </si>
+  <si>
+    <t>JUAL KERAJINAN ROTAN DAN KOMBINASI</t>
+  </si>
+  <si>
+    <t>USAHA SEMBAKO</t>
+  </si>
+  <si>
+    <t>JUAL PAKAIAN JADI</t>
+  </si>
+  <si>
+    <t>JASA LES PRIVAT "QUANTUM AL-ILMU"</t>
+  </si>
+  <si>
+    <t>PENGADAAN BARANG DAN JASA</t>
+  </si>
+  <si>
+    <t>JUAL ALAT RUMAH TANGGA</t>
+  </si>
+  <si>
+    <t>JUAL BELI SEMBAKO</t>
+  </si>
+  <si>
+    <t>USAHA JUAL HELM</t>
+  </si>
+  <si>
+    <t>CATERING</t>
+  </si>
+  <si>
+    <t>JUAL BUAH</t>
+  </si>
+  <si>
+    <t>PEDAGANG SEMBAKO</t>
+  </si>
+  <si>
+    <t>JUAL MAKANAN BURUNG</t>
+  </si>
+  <si>
+    <t>JASA PENCUCIAN SEPEDA MOTOR</t>
+  </si>
+  <si>
+    <t>KERAJINAN SOUVENIR KEPALA RUSA</t>
+  </si>
+  <si>
+    <t>USAHA BENGKEL MOTOR</t>
+  </si>
+  <si>
+    <t>DAGANG PAKAIAN JADI, PENYEWAAN BARAK</t>
+  </si>
+  <si>
+    <t>SALON NORNI</t>
+  </si>
+  <si>
+    <t>BUDIDAYA JAMUR TIRAM</t>
+  </si>
+  <si>
+    <t>JASA JAHIT</t>
+  </si>
+  <si>
+    <t>USAHA HANDCRAF</t>
+  </si>
+  <si>
+    <t>JUALAN PENTOL</t>
+  </si>
+  <si>
+    <t>PERCETAKAN BATAKO</t>
+  </si>
+  <si>
+    <t>PEMBUATAN KUE</t>
+  </si>
+  <si>
+    <t>KANTIN SEKOLAH/BUDIDAYA IKAN</t>
+  </si>
+  <si>
+    <t>PENGRAJIN TAS RAJUT</t>
+  </si>
+  <si>
+    <t>JUAL MAKANAN RINGAN</t>
+  </si>
+  <si>
+    <t>PETERNAK BABI</t>
+  </si>
+  <si>
+    <t>BENGKEL LAS</t>
+  </si>
+  <si>
+    <t>KERAMBA IKAN</t>
+  </si>
+  <si>
+    <t>KOLAM IKAN</t>
+  </si>
+  <si>
+    <t>PRMBUATAN TAHU</t>
+  </si>
+  <si>
+    <t>PEMBUATAN BATAKO</t>
+  </si>
+  <si>
+    <t>PENGRAJIN ROTAN</t>
+  </si>
+  <si>
+    <t>PEDAGANG MAKANAN</t>
+  </si>
+  <si>
+    <t>PENAMPUNGAN KARET</t>
+  </si>
+  <si>
+    <t>BENGKEL</t>
+  </si>
+  <si>
+    <t>TOKO ANEKA ILMU GEMILANG</t>
+  </si>
+  <si>
+    <t>JASA PENGADAAN BARANG</t>
+  </si>
+  <si>
+    <t>TAMBANG GALIAN BATU</t>
+  </si>
+  <si>
+    <t>JUAL BELI SAWIT</t>
+  </si>
+  <si>
+    <t>HANDYCRAF</t>
+  </si>
+  <si>
+    <t>BERDAGANG SEMBAKO</t>
+  </si>
+  <si>
+    <t>BIDIDAYA WALET</t>
+  </si>
+  <si>
+    <t>PABRIK TAHU</t>
+  </si>
+  <si>
+    <t>DAGANG SAYUR MAYUR</t>
+  </si>
+  <si>
+    <t>USAHA MEYBEL DAN JASA FHOTO COPY</t>
+  </si>
+  <si>
+    <t>DAGANG BATAGOR</t>
+  </si>
+  <si>
+    <t>MEUBEL, SEMBAKO DAN JUAL PULSA</t>
+  </si>
+  <si>
+    <t>JUAL KONVEKSI</t>
+  </si>
+  <si>
+    <t>VARIASI MOBIL&amp; JUAL BELI MOBIL BEKAS</t>
+  </si>
+  <si>
+    <t>FOTO</t>
+  </si>
+  <si>
+    <t>POTONG RAMBUT</t>
+  </si>
+  <si>
+    <t>CATERING SNACK DAN NASI</t>
+  </si>
+  <si>
+    <t>USAHA BUTIK</t>
+  </si>
+  <si>
+    <t>JUAL ICE DRINK ULUN CHOFFE</t>
+  </si>
+  <si>
+    <t>JUALAN PAKAIAN "SOMETHING_BYAMA)</t>
+  </si>
+  <si>
+    <t>JUAL MAKANAN "SEBLAK KIH"</t>
+  </si>
+  <si>
+    <t>JUAL MAKANAN "PISANG COKLAT LUMER"</t>
+  </si>
+  <si>
+    <t>USAHA AKSESORIES HP</t>
+  </si>
+  <si>
+    <t>JUAL MAKANAN</t>
+  </si>
+  <si>
+    <t>USAHA KUE KERING "DAPOER DOLA"</t>
+  </si>
+  <si>
+    <t>JUAL KUE</t>
+  </si>
+  <si>
+    <t>JUAL OBAT HERBAL TRADISIONAL DAN SOUVENIR</t>
+  </si>
+  <si>
+    <t>KERAJINAN LIDI DAN ROTAN</t>
+  </si>
+  <si>
+    <t>SALON YULIE GADINK</t>
+  </si>
+  <si>
+    <t>WARUNG SEMBAKO RTF</t>
+  </si>
+  <si>
+    <t>KERAJINAN ROTAN KARYA MANDIRI</t>
+  </si>
+  <si>
+    <t>JUAL KAIN DAN PAKAIAN JADI</t>
+  </si>
+  <si>
+    <t>JUAL GORENGAN</t>
+  </si>
+  <si>
+    <t>Kios/Depo Air Minum isi ulang "R" TIGA</t>
+  </si>
+  <si>
+    <t>Warung Sembako</t>
+  </si>
+  <si>
+    <t>Warung makan dan minum</t>
+  </si>
+  <si>
+    <t>Angkutan Sawit</t>
+  </si>
+  <si>
+    <t>Sembako</t>
+  </si>
+  <si>
+    <t>Pedagang Gas LPG</t>
+  </si>
+  <si>
+    <t>budidaya dan penjualan sarang burung walet</t>
+  </si>
+  <si>
+    <t>Jual beli sarang burung walet</t>
+  </si>
+  <si>
+    <t>Jual pakaian Jadi</t>
+  </si>
+  <si>
+    <t>Jual nasi goreng dan lalapan</t>
+  </si>
+  <si>
+    <t>Penjahit Tya</t>
+  </si>
+  <si>
+    <t>Kedai OMA</t>
+  </si>
+  <si>
+    <t>Penjahit Naufal</t>
+  </si>
+  <si>
+    <t>Nasi goreng barokah</t>
+  </si>
+  <si>
+    <t>Jual Sembako</t>
+  </si>
+  <si>
+    <t>Toko Sela</t>
+  </si>
+  <si>
+    <t>UD. Aneka Usaha</t>
+  </si>
+  <si>
+    <t>A&amp;VN DONUTS</t>
+  </si>
+  <si>
+    <t>Pedagang Sembako</t>
+  </si>
+  <si>
+    <t>Rafipa Tailor</t>
+  </si>
+  <si>
+    <t>Jual Buah</t>
+  </si>
+  <si>
+    <t>Jual buah</t>
+  </si>
+  <si>
+    <t>Jual beli HP (conter pulsa)</t>
+  </si>
+  <si>
+    <t>Konter pulsa BERKAT KAWAN CELL</t>
+  </si>
+  <si>
+    <t>Soto Lamongan</t>
+  </si>
+  <si>
+    <t>Toko Hijab</t>
+  </si>
+  <si>
+    <t>Jaya Abadi ( Laundry &amp; Isi ulang galon)</t>
+  </si>
+  <si>
+    <t>Sembako dan BBM</t>
+  </si>
+  <si>
+    <t>Loket Pembayaran online dan Sembako</t>
+  </si>
+  <si>
+    <t>Usaha Dagang dan Penyedia Minyak (BBM)</t>
+  </si>
+  <si>
+    <t>Jual Makanan dan Minuman</t>
+  </si>
+  <si>
+    <t>Bengkel dan Sembako</t>
+  </si>
+  <si>
+    <t>Jual Alat Pancing dan Bangunan</t>
+  </si>
+  <si>
+    <t>Pencucian Motor</t>
+  </si>
+  <si>
+    <t>Warung Makan Mama Arif</t>
+  </si>
+  <si>
+    <t>Warung Mama Zaini</t>
+  </si>
+  <si>
+    <t>Bakso Ojolali</t>
+  </si>
+  <si>
+    <t>Donat Riby</t>
+  </si>
+  <si>
+    <t>Dapoer Elka</t>
+  </si>
+  <si>
+    <t>JUAL KUE WARUNG MAMA RISKA</t>
+  </si>
+  <si>
+    <t>Jual Pentol</t>
+  </si>
+  <si>
+    <t>Bakso Patria</t>
+  </si>
+  <si>
+    <t>USAHA FOTOCOPY,Percetakan dan ATK</t>
+  </si>
+  <si>
+    <t>CATERING DAN SNACK</t>
+  </si>
+  <si>
+    <t>BAKSO URAT MALANG</t>
+  </si>
+  <si>
+    <t>SEMBAKO</t>
+  </si>
+  <si>
+    <t>JUAL CENTACKY</t>
+  </si>
+  <si>
+    <t>USAHA PENGISIAN AIR GALON</t>
+  </si>
+  <si>
+    <t>BENGKEL MOTOR (SERBA MOTOR)</t>
+  </si>
+  <si>
+    <t>NASI KUNING STADION</t>
+  </si>
+  <si>
+    <t>USAHA BENGKEL SENAPAN</t>
+  </si>
+  <si>
+    <t>USAHA JUALAN PLASTIK</t>
+  </si>
+  <si>
+    <t>USAHA JASA MENJAHIT (VINS COLLECTIONS)</t>
+  </si>
+  <si>
+    <t>PENGOLAHAN HASIL PERIKANAN</t>
+  </si>
+  <si>
+    <t>USAHA JAMU DAN OBAT-OBATAN HERBAL</t>
+  </si>
+  <si>
+    <t>USAHA PENGOLAHAN PENTOL DAN NUGGET IKAN</t>
+  </si>
+  <si>
+    <t>PEDAGANG MAKANAN ONLINE</t>
+  </si>
+  <si>
+    <t>JUAL BARANG ELEKTRONIK ONLINE</t>
+  </si>
+  <si>
+    <t>JUAL PULSA DAN CAMILAN</t>
+  </si>
+  <si>
+    <t>PENJUAL SEMBAKO</t>
+  </si>
+  <si>
+    <t>BRODIN PRIMA RASA</t>
+  </si>
+  <si>
+    <t>Makanan Olahan khas Banyuwangi (Bolu Kowok Stik Ubi Ungu Sale Molen Dodol Buah)</t>
+  </si>
+  <si>
+    <t>Banyuwangi Jawa Timur</t>
+  </si>
+  <si>
+    <t>SYAMSUDIN</t>
+  </si>
+  <si>
+    <t>081234604056 / 081913953837</t>
+  </si>
+  <si>
+    <t>Dusun Krajan RT 02 RW 1 Desa Banjar Kecamatan Licin</t>
+  </si>
+  <si>
+    <t>PRINGGOKUSUMO BATIK</t>
+  </si>
+  <si>
+    <t>Batik</t>
+  </si>
+  <si>
+    <t>Hj ENDANG DESY LQ</t>
+  </si>
+  <si>
+    <t>085336712714 / 085236768889</t>
+  </si>
+  <si>
+    <t>Dsn Lambansukadi RT 3 RW 6 (200M Selatan Poliwangi) Desa Labanasem Kecamatan Kabat</t>
+  </si>
+  <si>
+    <t>AL-MAGFIROH</t>
+  </si>
+  <si>
+    <t>Sirup Temulawak</t>
+  </si>
+  <si>
+    <t>LULUS ASTA DEWI</t>
+  </si>
+  <si>
+    <t>Perum Kalirejo Permai JL Belimbing Blok J-18 Desa Kalirejo Kecamatan Kabat</t>
+  </si>
+  <si>
+    <t>ALA KUWUNG</t>
+  </si>
+  <si>
+    <t>Souvenir Handmade</t>
+  </si>
+  <si>
+    <t>Kerajinan</t>
+  </si>
+  <si>
+    <t>Jl Bengawan Gang Kenanga No 15 RT 01 RW 01 Singonegaran Banyuwangi</t>
+  </si>
+  <si>
+    <t>RIZA KHUSNUL KHOTIMAH</t>
+  </si>
+  <si>
+    <t>HARUM JAYA</t>
+  </si>
+  <si>
+    <t>Oleh-oleh Khas Banyawangi</t>
+  </si>
+  <si>
+    <t>EKO HARIYONO</t>
+  </si>
+  <si>
+    <t>Jln Ikan Arwana 18A Kertosari Banyuwangi</t>
+  </si>
+  <si>
+    <t>085236071248 / 0333-416236</t>
+  </si>
+  <si>
+    <t>JILIN HOROC TRADE CO, LTD</t>
+  </si>
+  <si>
+    <t>Importir - Butuh Fresh &amp; Frozen Fish (bawal, sotong),
+Seafood, Nickel, Ore. Butuh Frozen Fish 100 ton per hari.</t>
+  </si>
+  <si>
+    <t>Frozen Food</t>
+  </si>
+  <si>
+    <t>Felix Jiang</t>
+  </si>
+  <si>
+    <t>No. 2546 Fuzhi Road, Jingyue, Development Zone,
+Changchun City, Jilin Province, Post Code 130000, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 86 431 81038998 / felixjiang@hotmail.com</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>ZHAO QING HAI XING FOOD INDUSTRY CO,LTD</t>
+  </si>
+  <si>
+    <t>Importir -  Butuh Sea Weed (Rumput Laut) 500 ton per 2 minggu.</t>
+  </si>
+  <si>
+    <t>Rumput Laut / Sea Weed</t>
+  </si>
+  <si>
+    <t>Tianzi Industry Zone, Maan, Zhao Qing,
+Guangdong, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -</t>
+  </si>
+  <si>
+    <t>86-758-8312818</t>
+  </si>
+  <si>
+    <t>Importir - Butuh Sea Bamboo (Bambu Laut)</t>
+  </si>
+  <si>
+    <t>XIAMEN JIAHUA IMPORT AND EXPORT TRADING CO., LTD</t>
+  </si>
+  <si>
+    <t>38F, Zhongmin Mansion No. 72, North Hubin Rd,
+Xiamen, P.R. China</t>
+  </si>
+  <si>
+    <t>Vincent Lin</t>
+  </si>
+  <si>
+    <t>Bambu Laut (Sea Bamboo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +86-313799758249</t>
+  </si>
+  <si>
+    <t>SHANGDONG DAFENG TRADING CO., LTD</t>
+  </si>
+  <si>
+    <t>Importir -  Butuh Cassava (Gaplek&amp;Tapioca)</t>
+  </si>
+  <si>
+    <t>Room A2104-2105, Lunan Trade &amp; Shipping Center,
+No 277 Beijing Road, Rizhao, Shandong, China</t>
+  </si>
+  <si>
+    <t>Cassava</t>
+  </si>
+  <si>
+    <t>86.633.8717207</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +1066,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="33">
@@ -646,8 +1421,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1024,199 +1799,4132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.90625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.54296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.453125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.90625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="52.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="42" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1" t="s">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="1">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="145" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="56" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
+    </row>
+    <row r="95" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1" t="s">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="1" t="s">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="1" t="s">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1" t="s">
+    </row>
+    <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="2">
-        <v>41929</v>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H246" s="1">
+        <v>85749835817</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H247" s="1">
+        <v>85257402045</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
